--- a/InputFiles/CCDI/phs002790.xlsx
+++ b/InputFiles/CCDI/phs002790.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0134BEFA-DFF8-4A17-8229-B515852954BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB266073-514E-4BC2-81B9-F64DE094F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C0787B5-A770-4AE6-BD01-D0CCEEE43937}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2C0787B5-A770-4AE6-BD01-D0CCEEE43937}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1404" uniqueCount="1404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
   <si>
     <t>participant_id</t>
   </si>
@@ -2139,2115 +2139,6 @@
   </si>
   <si>
     <t>PBBPTS</t>
-  </si>
-  <si>
-    <t>PBBPTU</t>
-  </si>
-  <si>
-    <t>PBBPUC</t>
-  </si>
-  <si>
-    <t>PBBPUG</t>
-  </si>
-  <si>
-    <t>PBBPUJ</t>
-  </si>
-  <si>
-    <t>PBBPUW</t>
-  </si>
-  <si>
-    <t>PBBPVC</t>
-  </si>
-  <si>
-    <t>PBBPVG</t>
-  </si>
-  <si>
-    <t>PBBPVL</t>
-  </si>
-  <si>
-    <t>PBBPVR</t>
-  </si>
-  <si>
-    <t>PBBPVS</t>
-  </si>
-  <si>
-    <t>PBBPVW</t>
-  </si>
-  <si>
-    <t>PBBPVX</t>
-  </si>
-  <si>
-    <t>PBBPWD</t>
-  </si>
-  <si>
-    <t>PBBPWE</t>
-  </si>
-  <si>
-    <t>PBBPWG</t>
-  </si>
-  <si>
-    <t>PBBPWH</t>
-  </si>
-  <si>
-    <t>PBBPWK</t>
-  </si>
-  <si>
-    <t>PBBPWT</t>
-  </si>
-  <si>
-    <t>PBBPWU</t>
-  </si>
-  <si>
-    <t>PBBPXA</t>
-  </si>
-  <si>
-    <t>PBBPXG</t>
-  </si>
-  <si>
-    <t>PBBPXH</t>
-  </si>
-  <si>
-    <t>PBBPXU</t>
-  </si>
-  <si>
-    <t>PBBPXX</t>
-  </si>
-  <si>
-    <t>PBBPYD</t>
-  </si>
-  <si>
-    <t>PBBPYI</t>
-  </si>
-  <si>
-    <t>PBBPYS</t>
-  </si>
-  <si>
-    <t>PBBPZW</t>
-  </si>
-  <si>
-    <t>PBBRAB</t>
-  </si>
-  <si>
-    <t>PBBRAH</t>
-  </si>
-  <si>
-    <t>PBBRAK</t>
-  </si>
-  <si>
-    <t>PBBRAT</t>
-  </si>
-  <si>
-    <t>PBBRAW</t>
-  </si>
-  <si>
-    <t>PBBRAZ</t>
-  </si>
-  <si>
-    <t>PBBRBG</t>
-  </si>
-  <si>
-    <t>PBBRBI</t>
-  </si>
-  <si>
-    <t>PBBRBK</t>
-  </si>
-  <si>
-    <t>PBBRBP</t>
-  </si>
-  <si>
-    <t>PBBRBS</t>
-  </si>
-  <si>
-    <t>PBBRBY</t>
-  </si>
-  <si>
-    <t>PBBRBZ</t>
-  </si>
-  <si>
-    <t>PBBRCF</t>
-  </si>
-  <si>
-    <t>PBBRCR</t>
-  </si>
-  <si>
-    <t>PBBRCW</t>
-  </si>
-  <si>
-    <t>PBBRDE</t>
-  </si>
-  <si>
-    <t>PBBRDG</t>
-  </si>
-  <si>
-    <t>PBBRDL</t>
-  </si>
-  <si>
-    <t>PBBRDM</t>
-  </si>
-  <si>
-    <t>PBBRDV</t>
-  </si>
-  <si>
-    <t>PBBREH</t>
-  </si>
-  <si>
-    <t>PBBREK</t>
-  </si>
-  <si>
-    <t>PBBRET</t>
-  </si>
-  <si>
-    <t>PBBREU</t>
-  </si>
-  <si>
-    <t>PBBREX</t>
-  </si>
-  <si>
-    <t>PBBRFA</t>
-  </si>
-  <si>
-    <t>PBBRFJ</t>
-  </si>
-  <si>
-    <t>PBBRFM</t>
-  </si>
-  <si>
-    <t>PBBRFR</t>
-  </si>
-  <si>
-    <t>PBBRGE</t>
-  </si>
-  <si>
-    <t>PBBRGL</t>
-  </si>
-  <si>
-    <t>PBBRGM</t>
-  </si>
-  <si>
-    <t>PBBRGU</t>
-  </si>
-  <si>
-    <t>PBBRGW</t>
-  </si>
-  <si>
-    <t>PBBRHB</t>
-  </si>
-  <si>
-    <t>PBBRHM</t>
-  </si>
-  <si>
-    <t>PBBRIA</t>
-  </si>
-  <si>
-    <t>PBBRIC</t>
-  </si>
-  <si>
-    <t>PBBRIE</t>
-  </si>
-  <si>
-    <t>PBBRIH</t>
-  </si>
-  <si>
-    <t>PBBRIL</t>
-  </si>
-  <si>
-    <t>PBBRJF</t>
-  </si>
-  <si>
-    <t>PBBRJL</t>
-  </si>
-  <si>
-    <t>PBBRJW</t>
-  </si>
-  <si>
-    <t>PBBRJZ</t>
-  </si>
-  <si>
-    <t>PBBRKB</t>
-  </si>
-  <si>
-    <t>PBBRKD</t>
-  </si>
-  <si>
-    <t>PBBRKJ</t>
-  </si>
-  <si>
-    <t>PBBRKN</t>
-  </si>
-  <si>
-    <t>PBBRKP</t>
-  </si>
-  <si>
-    <t>PBBRKT</t>
-  </si>
-  <si>
-    <t>PBBRLC</t>
-  </si>
-  <si>
-    <t>PBBRLD</t>
-  </si>
-  <si>
-    <t>PBBRLH</t>
-  </si>
-  <si>
-    <t>PBBRLP</t>
-  </si>
-  <si>
-    <t>PBBRLR</t>
-  </si>
-  <si>
-    <t>PBBRLS</t>
-  </si>
-  <si>
-    <t>PBBRLT</t>
-  </si>
-  <si>
-    <t>PBBRLU</t>
-  </si>
-  <si>
-    <t>PBBRLV</t>
-  </si>
-  <si>
-    <t>PBBRLX</t>
-  </si>
-  <si>
-    <t>PBBRNA</t>
-  </si>
-  <si>
-    <t>PBBRND</t>
-  </si>
-  <si>
-    <t>PBBRNE</t>
-  </si>
-  <si>
-    <t>PBBRNG</t>
-  </si>
-  <si>
-    <t>PBBRNV</t>
-  </si>
-  <si>
-    <t>PBBRNY</t>
-  </si>
-  <si>
-    <t>PBBRPL</t>
-  </si>
-  <si>
-    <t>PBBRPW</t>
-  </si>
-  <si>
-    <t>PBBRPX</t>
-  </si>
-  <si>
-    <t>PBBRPZ</t>
-  </si>
-  <si>
-    <t>PBBRRE</t>
-  </si>
-  <si>
-    <t>PBBRRI</t>
-  </si>
-  <si>
-    <t>PBBRSA</t>
-  </si>
-  <si>
-    <t>PBBRSL</t>
-  </si>
-  <si>
-    <t>PBBRST</t>
-  </si>
-  <si>
-    <t>PBBRSW</t>
-  </si>
-  <si>
-    <t>PBBRSX</t>
-  </si>
-  <si>
-    <t>PBBRUB</t>
-  </si>
-  <si>
-    <t>PBBRUG</t>
-  </si>
-  <si>
-    <t>PBBRUJ</t>
-  </si>
-  <si>
-    <t>PBBRUK</t>
-  </si>
-  <si>
-    <t>PBBRUN</t>
-  </si>
-  <si>
-    <t>PBBRUP</t>
-  </si>
-  <si>
-    <t>PBBRUR</t>
-  </si>
-  <si>
-    <t>PBBRUS</t>
-  </si>
-  <si>
-    <t>PBBRVH</t>
-  </si>
-  <si>
-    <t>PBBRVL</t>
-  </si>
-  <si>
-    <t>PBBRVM</t>
-  </si>
-  <si>
-    <t>PBBRVP</t>
-  </si>
-  <si>
-    <t>PBBRWJ</t>
-  </si>
-  <si>
-    <t>PBBRWM</t>
-  </si>
-  <si>
-    <t>PBBRWR</t>
-  </si>
-  <si>
-    <t>PBBRWZ</t>
-  </si>
-  <si>
-    <t>PBBRXF</t>
-  </si>
-  <si>
-    <t>PBBRXI</t>
-  </si>
-  <si>
-    <t>PBBRXL</t>
-  </si>
-  <si>
-    <t>PBBRXN</t>
-  </si>
-  <si>
-    <t>PBBRXR</t>
-  </si>
-  <si>
-    <t>PBBRYA</t>
-  </si>
-  <si>
-    <t>PBBRYC</t>
-  </si>
-  <si>
-    <t>PBBRYJ</t>
-  </si>
-  <si>
-    <t>PBBRYM</t>
-  </si>
-  <si>
-    <t>PBBRYS</t>
-  </si>
-  <si>
-    <t>PBBRYT</t>
-  </si>
-  <si>
-    <t>PBBRZB</t>
-  </si>
-  <si>
-    <t>PBBRZD</t>
-  </si>
-  <si>
-    <t>PBBRZH</t>
-  </si>
-  <si>
-    <t>PBBRZR</t>
-  </si>
-  <si>
-    <t>PBBRZV</t>
-  </si>
-  <si>
-    <t>PBBRZX</t>
-  </si>
-  <si>
-    <t>PBBSAE</t>
-  </si>
-  <si>
-    <t>PBBSAI</t>
-  </si>
-  <si>
-    <t>PBBSAX</t>
-  </si>
-  <si>
-    <t>PBBSBG</t>
-  </si>
-  <si>
-    <t>PBBSBL</t>
-  </si>
-  <si>
-    <t>PBBSBS</t>
-  </si>
-  <si>
-    <t>PBBSBT</t>
-  </si>
-  <si>
-    <t>PBBSCH</t>
-  </si>
-  <si>
-    <t>PBBSCI</t>
-  </si>
-  <si>
-    <t>PBBSCK</t>
-  </si>
-  <si>
-    <t>PBBSCL</t>
-  </si>
-  <si>
-    <t>PBBSCT</t>
-  </si>
-  <si>
-    <t>PBBSDA</t>
-  </si>
-  <si>
-    <t>PBBSDG</t>
-  </si>
-  <si>
-    <t>PBBSDR</t>
-  </si>
-  <si>
-    <t>PBBSED</t>
-  </si>
-  <si>
-    <t>PBBSEE</t>
-  </si>
-  <si>
-    <t>PBBSEG</t>
-  </si>
-  <si>
-    <t>PBBSEP</t>
-  </si>
-  <si>
-    <t>PBBSER</t>
-  </si>
-  <si>
-    <t>PBBSEW</t>
-  </si>
-  <si>
-    <t>PBBSEY</t>
-  </si>
-  <si>
-    <t>PBBSFA</t>
-  </si>
-  <si>
-    <t>PBBSFF</t>
-  </si>
-  <si>
-    <t>PBBSFK</t>
-  </si>
-  <si>
-    <t>PBBSFL</t>
-  </si>
-  <si>
-    <t>PBBSFM</t>
-  </si>
-  <si>
-    <t>PBBSFT</t>
-  </si>
-  <si>
-    <t>PBBSGA</t>
-  </si>
-  <si>
-    <t>PBBSGI</t>
-  </si>
-  <si>
-    <t>PBBSGJ</t>
-  </si>
-  <si>
-    <t>PBBSGU</t>
-  </si>
-  <si>
-    <t>PBBSHC</t>
-  </si>
-  <si>
-    <t>PBBSHJ</t>
-  </si>
-  <si>
-    <t>PBBSHZ</t>
-  </si>
-  <si>
-    <t>PBBSID</t>
-  </si>
-  <si>
-    <t>PBBSIH</t>
-  </si>
-  <si>
-    <t>PBBSIJ</t>
-  </si>
-  <si>
-    <t>PBBSIL</t>
-  </si>
-  <si>
-    <t>PBBSIU</t>
-  </si>
-  <si>
-    <t>PBBSJH</t>
-  </si>
-  <si>
-    <t>PBBSJK</t>
-  </si>
-  <si>
-    <t>PBBSJL</t>
-  </si>
-  <si>
-    <t>PBBSJN</t>
-  </si>
-  <si>
-    <t>PBBSJS</t>
-  </si>
-  <si>
-    <t>PBBSJU</t>
-  </si>
-  <si>
-    <t>PBBSJY</t>
-  </si>
-  <si>
-    <t>PBBSKD</t>
-  </si>
-  <si>
-    <t>PBBSKE</t>
-  </si>
-  <si>
-    <t>PBBSKG</t>
-  </si>
-  <si>
-    <t>PBBSKL</t>
-  </si>
-  <si>
-    <t>PBBSKM</t>
-  </si>
-  <si>
-    <t>PBBSLV</t>
-  </si>
-  <si>
-    <t>PBBSME</t>
-  </si>
-  <si>
-    <t>PBBSMY</t>
-  </si>
-  <si>
-    <t>PBBSNL</t>
-  </si>
-  <si>
-    <t>PBBSPA</t>
-  </si>
-  <si>
-    <t>PBBSPF</t>
-  </si>
-  <si>
-    <t>PBBSPP</t>
-  </si>
-  <si>
-    <t>PBBSRD</t>
-  </si>
-  <si>
-    <t>PBBSRE</t>
-  </si>
-  <si>
-    <t>PBBSRF</t>
-  </si>
-  <si>
-    <t>PBBSRJ</t>
-  </si>
-  <si>
-    <t>PBBSRN</t>
-  </si>
-  <si>
-    <t>PBBSRR</t>
-  </si>
-  <si>
-    <t>PBBSRS</t>
-  </si>
-  <si>
-    <t>PBBSRT</t>
-  </si>
-  <si>
-    <t>PBBSRV</t>
-  </si>
-  <si>
-    <t>PBBSSK</t>
-  </si>
-  <si>
-    <t>PBBSSM</t>
-  </si>
-  <si>
-    <t>PBBSSU</t>
-  </si>
-  <si>
-    <t>PBBSSV</t>
-  </si>
-  <si>
-    <t>PBBSTE</t>
-  </si>
-  <si>
-    <t>PBBSTK</t>
-  </si>
-  <si>
-    <t>PBBSTM</t>
-  </si>
-  <si>
-    <t>PBBSTP</t>
-  </si>
-  <si>
-    <t>PBBSTU</t>
-  </si>
-  <si>
-    <t>PBBSUA</t>
-  </si>
-  <si>
-    <t>PBBSUK</t>
-  </si>
-  <si>
-    <t>PBBSUL</t>
-  </si>
-  <si>
-    <t>PBBSUN</t>
-  </si>
-  <si>
-    <t>PBBSUU</t>
-  </si>
-  <si>
-    <t>PBBSVA</t>
-  </si>
-  <si>
-    <t>PBBSVB</t>
-  </si>
-  <si>
-    <t>PBBSVE</t>
-  </si>
-  <si>
-    <t>PBBSVM</t>
-  </si>
-  <si>
-    <t>PBBSVZ</t>
-  </si>
-  <si>
-    <t>PBBSWG</t>
-  </si>
-  <si>
-    <t>PBBSWK</t>
-  </si>
-  <si>
-    <t>PBBSWP</t>
-  </si>
-  <si>
-    <t>PBBSWU</t>
-  </si>
-  <si>
-    <t>PBBSXB</t>
-  </si>
-  <si>
-    <t>PBBSXH</t>
-  </si>
-  <si>
-    <t>PBBSXN</t>
-  </si>
-  <si>
-    <t>PBBSXR</t>
-  </si>
-  <si>
-    <t>PBBSXV</t>
-  </si>
-  <si>
-    <t>PBBSYE</t>
-  </si>
-  <si>
-    <t>PBBSYF</t>
-  </si>
-  <si>
-    <t>PBBSYH</t>
-  </si>
-  <si>
-    <t>PBBSYL</t>
-  </si>
-  <si>
-    <t>PBBSYU</t>
-  </si>
-  <si>
-    <t>PBBSZE</t>
-  </si>
-  <si>
-    <t>PBBSZG</t>
-  </si>
-  <si>
-    <t>PBBSZP</t>
-  </si>
-  <si>
-    <t>PBBSZR</t>
-  </si>
-  <si>
-    <t>PBBSZS</t>
-  </si>
-  <si>
-    <t>PBBTAD</t>
-  </si>
-  <si>
-    <t>PBBTAE</t>
-  </si>
-  <si>
-    <t>PBBTAK</t>
-  </si>
-  <si>
-    <t>PBBTAS</t>
-  </si>
-  <si>
-    <t>PBBTAY</t>
-  </si>
-  <si>
-    <t>PBBTBG</t>
-  </si>
-  <si>
-    <t>PBBTBL</t>
-  </si>
-  <si>
-    <t>PBBTBM</t>
-  </si>
-  <si>
-    <t>PBBTBU</t>
-  </si>
-  <si>
-    <t>PBBTCE</t>
-  </si>
-  <si>
-    <t>PBBTCP</t>
-  </si>
-  <si>
-    <t>PBBTCS</t>
-  </si>
-  <si>
-    <t>PBBTCV</t>
-  </si>
-  <si>
-    <t>PBBTCY</t>
-  </si>
-  <si>
-    <t>PBBTDA</t>
-  </si>
-  <si>
-    <t>PBBTDD</t>
-  </si>
-  <si>
-    <t>PBBTDS</t>
-  </si>
-  <si>
-    <t>PBBTDW</t>
-  </si>
-  <si>
-    <t>PBBTDX</t>
-  </si>
-  <si>
-    <t>PBBTEC</t>
-  </si>
-  <si>
-    <t>PBBTED</t>
-  </si>
-  <si>
-    <t>PBBTEJ</t>
-  </si>
-  <si>
-    <t>PBBTEM</t>
-  </si>
-  <si>
-    <t>PBBTFD</t>
-  </si>
-  <si>
-    <t>PBBTFJ</t>
-  </si>
-  <si>
-    <t>PBBTFL</t>
-  </si>
-  <si>
-    <t>PBBTFP</t>
-  </si>
-  <si>
-    <t>PBBTFZ</t>
-  </si>
-  <si>
-    <t>PBBTGA</t>
-  </si>
-  <si>
-    <t>PBBTGI</t>
-  </si>
-  <si>
-    <t>PBBTGR</t>
-  </si>
-  <si>
-    <t>PBBTGZ</t>
-  </si>
-  <si>
-    <t>PBBTHB</t>
-  </si>
-  <si>
-    <t>PBBTHD</t>
-  </si>
-  <si>
-    <t>PBBTHI</t>
-  </si>
-  <si>
-    <t>PBBTHU</t>
-  </si>
-  <si>
-    <t>PBBTIB</t>
-  </si>
-  <si>
-    <t>PBBTIX</t>
-  </si>
-  <si>
-    <t>PBBTJR</t>
-  </si>
-  <si>
-    <t>PBBTKE</t>
-  </si>
-  <si>
-    <t>PBBTKF</t>
-  </si>
-  <si>
-    <t>PBBTKG</t>
-  </si>
-  <si>
-    <t>PBBTKI</t>
-  </si>
-  <si>
-    <t>PBBTKZ</t>
-  </si>
-  <si>
-    <t>PBBTLB</t>
-  </si>
-  <si>
-    <t>PBBTLN</t>
-  </si>
-  <si>
-    <t>PBBTLR</t>
-  </si>
-  <si>
-    <t>PBBTLT</t>
-  </si>
-  <si>
-    <t>PBBTLV</t>
-  </si>
-  <si>
-    <t>PBBTLY</t>
-  </si>
-  <si>
-    <t>PBBTMD</t>
-  </si>
-  <si>
-    <t>PBBTMF</t>
-  </si>
-  <si>
-    <t>PBBTMJ</t>
-  </si>
-  <si>
-    <t>PBBTMS</t>
-  </si>
-  <si>
-    <t>PBBTMV</t>
-  </si>
-  <si>
-    <t>PBBTND</t>
-  </si>
-  <si>
-    <t>PBBTNE</t>
-  </si>
-  <si>
-    <t>PBBTNG</t>
-  </si>
-  <si>
-    <t>PBBTNR</t>
-  </si>
-  <si>
-    <t>PBBTNS</t>
-  </si>
-  <si>
-    <t>PBBTNU</t>
-  </si>
-  <si>
-    <t>PBBTNW</t>
-  </si>
-  <si>
-    <t>PBBTNX</t>
-  </si>
-  <si>
-    <t>PBBTNY</t>
-  </si>
-  <si>
-    <t>PBBTPH</t>
-  </si>
-  <si>
-    <t>PBBTPN</t>
-  </si>
-  <si>
-    <t>PBBTPR</t>
-  </si>
-  <si>
-    <t>PBBTPZ</t>
-  </si>
-  <si>
-    <t>PBBTRA</t>
-  </si>
-  <si>
-    <t>PBBTRC</t>
-  </si>
-  <si>
-    <t>PBBTRI</t>
-  </si>
-  <si>
-    <t>PBBTRP</t>
-  </si>
-  <si>
-    <t>PBBTRR</t>
-  </si>
-  <si>
-    <t>PBBTRZ</t>
-  </si>
-  <si>
-    <t>PBBTSC</t>
-  </si>
-  <si>
-    <t>PBBTSD</t>
-  </si>
-  <si>
-    <t>PBBTSE</t>
-  </si>
-  <si>
-    <t>PBBTSU</t>
-  </si>
-  <si>
-    <t>PBBTSW</t>
-  </si>
-  <si>
-    <t>PBBTTG</t>
-  </si>
-  <si>
-    <t>PBBTTH</t>
-  </si>
-  <si>
-    <t>PBBTTL</t>
-  </si>
-  <si>
-    <t>PBBTTN</t>
-  </si>
-  <si>
-    <t>PBBTTS</t>
-  </si>
-  <si>
-    <t>PBBTTU</t>
-  </si>
-  <si>
-    <t>PBBTTX</t>
-  </si>
-  <si>
-    <t>PBBTTZ</t>
-  </si>
-  <si>
-    <t>PBBTUE</t>
-  </si>
-  <si>
-    <t>PBBTUH</t>
-  </si>
-  <si>
-    <t>PBBTUR</t>
-  </si>
-  <si>
-    <t>PBBTUV</t>
-  </si>
-  <si>
-    <t>PBBTUW</t>
-  </si>
-  <si>
-    <t>PBBTUX</t>
-  </si>
-  <si>
-    <t>PBBTVK</t>
-  </si>
-  <si>
-    <t>PBBTVN</t>
-  </si>
-  <si>
-    <t>PBBTVS</t>
-  </si>
-  <si>
-    <t>PBBTWG</t>
-  </si>
-  <si>
-    <t>PBBTWI</t>
-  </si>
-  <si>
-    <t>PBBTWL</t>
-  </si>
-  <si>
-    <t>PBBTWM</t>
-  </si>
-  <si>
-    <t>PBBTWN</t>
-  </si>
-  <si>
-    <t>PBBTXA</t>
-  </si>
-  <si>
-    <t>PBBTXH</t>
-  </si>
-  <si>
-    <t>PBBTXM</t>
-  </si>
-  <si>
-    <t>PBBTXS</t>
-  </si>
-  <si>
-    <t>PBBTXT</t>
-  </si>
-  <si>
-    <t>PBBTYG</t>
-  </si>
-  <si>
-    <t>PBBTYI</t>
-  </si>
-  <si>
-    <t>PBBTYJ</t>
-  </si>
-  <si>
-    <t>PBBTYK</t>
-  </si>
-  <si>
-    <t>PBBTYM</t>
-  </si>
-  <si>
-    <t>PBBTYR</t>
-  </si>
-  <si>
-    <t>PBBTYW</t>
-  </si>
-  <si>
-    <t>PBBTYY</t>
-  </si>
-  <si>
-    <t>PBBTYZ</t>
-  </si>
-  <si>
-    <t>PBBTZC</t>
-  </si>
-  <si>
-    <t>PBBTZK</t>
-  </si>
-  <si>
-    <t>PBBTZN</t>
-  </si>
-  <si>
-    <t>PBBTZY</t>
-  </si>
-  <si>
-    <t>PBBUAB</t>
-  </si>
-  <si>
-    <t>PBBUAF</t>
-  </si>
-  <si>
-    <t>PBBUAN</t>
-  </si>
-  <si>
-    <t>PBBUAT</t>
-  </si>
-  <si>
-    <t>PBBUAW</t>
-  </si>
-  <si>
-    <t>PBBUAY</t>
-  </si>
-  <si>
-    <t>PBBUBA</t>
-  </si>
-  <si>
-    <t>PBBUBH</t>
-  </si>
-  <si>
-    <t>PBBUBL</t>
-  </si>
-  <si>
-    <t>PBBUBN</t>
-  </si>
-  <si>
-    <t>PBBUBP</t>
-  </si>
-  <si>
-    <t>PBBUBR</t>
-  </si>
-  <si>
-    <t>PBBUBT</t>
-  </si>
-  <si>
-    <t>PBBUBZ</t>
-  </si>
-  <si>
-    <t>PBBUCE</t>
-  </si>
-  <si>
-    <t>PBBUCK</t>
-  </si>
-  <si>
-    <t>PBBUCL</t>
-  </si>
-  <si>
-    <t>PBBUCM</t>
-  </si>
-  <si>
-    <t>PBBUCS</t>
-  </si>
-  <si>
-    <t>PBBUCU</t>
-  </si>
-  <si>
-    <t>PBBUCV</t>
-  </si>
-  <si>
-    <t>PBBUCX</t>
-  </si>
-  <si>
-    <t>PBBUDJ</t>
-  </si>
-  <si>
-    <t>PBBUDK</t>
-  </si>
-  <si>
-    <t>PBBUDL</t>
-  </si>
-  <si>
-    <t>PBBUDU</t>
-  </si>
-  <si>
-    <t>PBBUDW</t>
-  </si>
-  <si>
-    <t>PBBUDY</t>
-  </si>
-  <si>
-    <t>PBBUEK</t>
-  </si>
-  <si>
-    <t>PBBUET</t>
-  </si>
-  <si>
-    <t>PBBUEV</t>
-  </si>
-  <si>
-    <t>PBBUEW</t>
-  </si>
-  <si>
-    <t>PBBUEX</t>
-  </si>
-  <si>
-    <t>PBBUEY</t>
-  </si>
-  <si>
-    <t>PBBUFD</t>
-  </si>
-  <si>
-    <t>PBBUFE</t>
-  </si>
-  <si>
-    <t>PBBUFF</t>
-  </si>
-  <si>
-    <t>PBBUFI</t>
-  </si>
-  <si>
-    <t>PBBUFM</t>
-  </si>
-  <si>
-    <t>PBBUFN</t>
-  </si>
-  <si>
-    <t>PBBUFR</t>
-  </si>
-  <si>
-    <t>PBBUGC</t>
-  </si>
-  <si>
-    <t>PBBUGE</t>
-  </si>
-  <si>
-    <t>PBBUGF</t>
-  </si>
-  <si>
-    <t>PBBUGH</t>
-  </si>
-  <si>
-    <t>PBBUGL</t>
-  </si>
-  <si>
-    <t>PBBUGV</t>
-  </si>
-  <si>
-    <t>PBBUHB</t>
-  </si>
-  <si>
-    <t>PBBUHC</t>
-  </si>
-  <si>
-    <t>PBBUHJ</t>
-  </si>
-  <si>
-    <t>PBBUHP</t>
-  </si>
-  <si>
-    <t>PBBUIB</t>
-  </si>
-  <si>
-    <t>PBBUII</t>
-  </si>
-  <si>
-    <t>PBBUIL</t>
-  </si>
-  <si>
-    <t>PBBUIS</t>
-  </si>
-  <si>
-    <t>PBBUJJ</t>
-  </si>
-  <si>
-    <t>PBBUJL</t>
-  </si>
-  <si>
-    <t>PBBUJZ</t>
-  </si>
-  <si>
-    <t>PBBUKA</t>
-  </si>
-  <si>
-    <t>PBBUKI</t>
-  </si>
-  <si>
-    <t>PBBUKK</t>
-  </si>
-  <si>
-    <t>PBBUKM</t>
-  </si>
-  <si>
-    <t>PBBUKU</t>
-  </si>
-  <si>
-    <t>PBBUKV</t>
-  </si>
-  <si>
-    <t>PBBUKY</t>
-  </si>
-  <si>
-    <t>PBBULB</t>
-  </si>
-  <si>
-    <t>PBBULF</t>
-  </si>
-  <si>
-    <t>PBBULG</t>
-  </si>
-  <si>
-    <t>PBBULZ</t>
-  </si>
-  <si>
-    <t>PBBUMA</t>
-  </si>
-  <si>
-    <t>PBBUMF</t>
-  </si>
-  <si>
-    <t>PBBUMG</t>
-  </si>
-  <si>
-    <t>PBBUMH</t>
-  </si>
-  <si>
-    <t>PBBUML</t>
-  </si>
-  <si>
-    <t>PBBUMY</t>
-  </si>
-  <si>
-    <t>PBBUNA</t>
-  </si>
-  <si>
-    <t>PBBUNC</t>
-  </si>
-  <si>
-    <t>PBBUND</t>
-  </si>
-  <si>
-    <t>PBBUNK</t>
-  </si>
-  <si>
-    <t>PBBUNP</t>
-  </si>
-  <si>
-    <t>PBBUNT</t>
-  </si>
-  <si>
-    <t>PBBUNU</t>
-  </si>
-  <si>
-    <t>PBBUNX</t>
-  </si>
-  <si>
-    <t>PBBUNY</t>
-  </si>
-  <si>
-    <t>PBBUPA</t>
-  </si>
-  <si>
-    <t>PBBUPC</t>
-  </si>
-  <si>
-    <t>PBBUPJ</t>
-  </si>
-  <si>
-    <t>PBBUPR</t>
-  </si>
-  <si>
-    <t>PBBUPT</t>
-  </si>
-  <si>
-    <t>PBBUPV</t>
-  </si>
-  <si>
-    <t>PBBUPW</t>
-  </si>
-  <si>
-    <t>PBBURB</t>
-  </si>
-  <si>
-    <t>PBBURC</t>
-  </si>
-  <si>
-    <t>PBBURD</t>
-  </si>
-  <si>
-    <t>PBBURI</t>
-  </si>
-  <si>
-    <t>PBBURK</t>
-  </si>
-  <si>
-    <t>PBBURM</t>
-  </si>
-  <si>
-    <t>PBBURU</t>
-  </si>
-  <si>
-    <t>PBBUSB</t>
-  </si>
-  <si>
-    <t>PBBUSJ</t>
-  </si>
-  <si>
-    <t>PBBUSK</t>
-  </si>
-  <si>
-    <t>PBBUTB</t>
-  </si>
-  <si>
-    <t>PBBUTC</t>
-  </si>
-  <si>
-    <t>PBBUTE</t>
-  </si>
-  <si>
-    <t>PBBUTH</t>
-  </si>
-  <si>
-    <t>PBBUTJ</t>
-  </si>
-  <si>
-    <t>PBBUTL</t>
-  </si>
-  <si>
-    <t>PBBUTM</t>
-  </si>
-  <si>
-    <t>PBBUTS</t>
-  </si>
-  <si>
-    <t>PBBUTU</t>
-  </si>
-  <si>
-    <t>PBBUTV</t>
-  </si>
-  <si>
-    <t>PBBUTY</t>
-  </si>
-  <si>
-    <t>PBBUUR</t>
-  </si>
-  <si>
-    <t>PBBUUW</t>
-  </si>
-  <si>
-    <t>PBBUVE</t>
-  </si>
-  <si>
-    <t>PBBUVH</t>
-  </si>
-  <si>
-    <t>PBBUVM</t>
-  </si>
-  <si>
-    <t>PBBUVW</t>
-  </si>
-  <si>
-    <t>PBBUVX</t>
-  </si>
-  <si>
-    <t>PBBUWE</t>
-  </si>
-  <si>
-    <t>PBBUWR</t>
-  </si>
-  <si>
-    <t>PBBUWT</t>
-  </si>
-  <si>
-    <t>PBBUWZ</t>
-  </si>
-  <si>
-    <t>PBBUXB</t>
-  </si>
-  <si>
-    <t>PBBUXE</t>
-  </si>
-  <si>
-    <t>PBBUXF</t>
-  </si>
-  <si>
-    <t>PBBUXI</t>
-  </si>
-  <si>
-    <t>PBBUXK</t>
-  </si>
-  <si>
-    <t>PBBUXS</t>
-  </si>
-  <si>
-    <t>PBBUXT</t>
-  </si>
-  <si>
-    <t>PBBUXY</t>
-  </si>
-  <si>
-    <t>PBBUXZ</t>
-  </si>
-  <si>
-    <t>PBBUYC</t>
-  </si>
-  <si>
-    <t>PBBUYE</t>
-  </si>
-  <si>
-    <t>PBBUYK</t>
-  </si>
-  <si>
-    <t>PBBUYL</t>
-  </si>
-  <si>
-    <t>PBBUYU</t>
-  </si>
-  <si>
-    <t>PBBUYX</t>
-  </si>
-  <si>
-    <t>PBBUZA</t>
-  </si>
-  <si>
-    <t>PBBUZI</t>
-  </si>
-  <si>
-    <t>PBBUZK</t>
-  </si>
-  <si>
-    <t>PBBUZL</t>
-  </si>
-  <si>
-    <t>PBBUZR</t>
-  </si>
-  <si>
-    <t>PBBVAA</t>
-  </si>
-  <si>
-    <t>PBBVAE</t>
-  </si>
-  <si>
-    <t>PBBVAK</t>
-  </si>
-  <si>
-    <t>PBBVAN</t>
-  </si>
-  <si>
-    <t>PBBVAT</t>
-  </si>
-  <si>
-    <t>PBBVBA</t>
-  </si>
-  <si>
-    <t>PBBVBB</t>
-  </si>
-  <si>
-    <t>PBBVBD</t>
-  </si>
-  <si>
-    <t>PBBVBH</t>
-  </si>
-  <si>
-    <t>PBBVBI</t>
-  </si>
-  <si>
-    <t>PBBVBJ</t>
-  </si>
-  <si>
-    <t>PBBVBX</t>
-  </si>
-  <si>
-    <t>PBBVCD</t>
-  </si>
-  <si>
-    <t>PBBVCK</t>
-  </si>
-  <si>
-    <t>PBBVCM</t>
-  </si>
-  <si>
-    <t>PBBVCN</t>
-  </si>
-  <si>
-    <t>PBBVCP</t>
-  </si>
-  <si>
-    <t>PBBVCS</t>
-  </si>
-  <si>
-    <t>PBBVDB</t>
-  </si>
-  <si>
-    <t>PBBVDC</t>
-  </si>
-  <si>
-    <t>PBBVDH</t>
-  </si>
-  <si>
-    <t>PBBVDK</t>
-  </si>
-  <si>
-    <t>PBBVDR</t>
-  </si>
-  <si>
-    <t>PBBVDV</t>
-  </si>
-  <si>
-    <t>PBBVDX</t>
-  </si>
-  <si>
-    <t>PBBVDY</t>
-  </si>
-  <si>
-    <t>PBBVEH</t>
-  </si>
-  <si>
-    <t>PBBVEK</t>
-  </si>
-  <si>
-    <t>PBBVER</t>
-  </si>
-  <si>
-    <t>PBBVEW</t>
-  </si>
-  <si>
-    <t>PBBVFA</t>
-  </si>
-  <si>
-    <t>PBBVFB</t>
-  </si>
-  <si>
-    <t>PBBVFG</t>
-  </si>
-  <si>
-    <t>PBBVFM</t>
-  </si>
-  <si>
-    <t>PBBVFT</t>
-  </si>
-  <si>
-    <t>PBBVFV</t>
-  </si>
-  <si>
-    <t>PBBVFY</t>
-  </si>
-  <si>
-    <t>PBBVGC</t>
-  </si>
-  <si>
-    <t>PBBVGW</t>
-  </si>
-  <si>
-    <t>PBBVGX</t>
-  </si>
-  <si>
-    <t>PBBVHA</t>
-  </si>
-  <si>
-    <t>PBBVHF</t>
-  </si>
-  <si>
-    <t>PBBVHG</t>
-  </si>
-  <si>
-    <t>PBBVHR</t>
-  </si>
-  <si>
-    <t>PBBVIA</t>
-  </si>
-  <si>
-    <t>PBBVIH</t>
-  </si>
-  <si>
-    <t>PBBVIK</t>
-  </si>
-  <si>
-    <t>PBBVIM</t>
-  </si>
-  <si>
-    <t>PBBVIS</t>
-  </si>
-  <si>
-    <t>PBBVIY</t>
-  </si>
-  <si>
-    <t>PBBVJB</t>
-  </si>
-  <si>
-    <t>PBBVJL</t>
-  </si>
-  <si>
-    <t>PBBVJN</t>
-  </si>
-  <si>
-    <t>PBBVJR</t>
-  </si>
-  <si>
-    <t>PBBVJX</t>
-  </si>
-  <si>
-    <t>PBBVKE</t>
-  </si>
-  <si>
-    <t>PBBVKF</t>
-  </si>
-  <si>
-    <t>PBBVKG</t>
-  </si>
-  <si>
-    <t>PBBVKH</t>
-  </si>
-  <si>
-    <t>PBBVKI</t>
-  </si>
-  <si>
-    <t>PBBVKJ</t>
-  </si>
-  <si>
-    <t>PBBVKT</t>
-  </si>
-  <si>
-    <t>PBBVKV</t>
-  </si>
-  <si>
-    <t>PBBVKX</t>
-  </si>
-  <si>
-    <t>PBBVLG</t>
-  </si>
-  <si>
-    <t>PBBVLI</t>
-  </si>
-  <si>
-    <t>PBBVLK</t>
-  </si>
-  <si>
-    <t>PBBVLL</t>
-  </si>
-  <si>
-    <t>PBBVLR</t>
-  </si>
-  <si>
-    <t>PBBVLS</t>
-  </si>
-  <si>
-    <t>PBBVLV</t>
-  </si>
-  <si>
-    <t>PBBVLZ</t>
-  </si>
-  <si>
-    <t>PBBVMB</t>
-  </si>
-  <si>
-    <t>PBBVME</t>
-  </si>
-  <si>
-    <t>PBBVMK</t>
-  </si>
-  <si>
-    <t>PBBVMV</t>
-  </si>
-  <si>
-    <t>PBBVMZ</t>
-  </si>
-  <si>
-    <t>PBBVNB</t>
-  </si>
-  <si>
-    <t>PBBVND</t>
-  </si>
-  <si>
-    <t>PBBVNH</t>
-  </si>
-  <si>
-    <t>PBBVNN</t>
-  </si>
-  <si>
-    <t>PBBVNP</t>
-  </si>
-  <si>
-    <t>PBBVNR</t>
-  </si>
-  <si>
-    <t>PBBVNT</t>
-  </si>
-  <si>
-    <t>PBBVNV</t>
-  </si>
-  <si>
-    <t>PBBVNZ</t>
-  </si>
-  <si>
-    <t>PBBVPA</t>
-  </si>
-  <si>
-    <t>PBBVPC</t>
-  </si>
-  <si>
-    <t>PBBVPK</t>
-  </si>
-  <si>
-    <t>PBBVPL</t>
-  </si>
-  <si>
-    <t>PBBVPP</t>
-  </si>
-  <si>
-    <t>PBBVPY</t>
-  </si>
-  <si>
-    <t>PBBVPZ</t>
-  </si>
-  <si>
-    <t>PBBVRA</t>
-  </si>
-  <si>
-    <t>PBBVRB</t>
-  </si>
-  <si>
-    <t>PBBVRC</t>
-  </si>
-  <si>
-    <t>PBBVRD</t>
-  </si>
-  <si>
-    <t>PBBVRE</t>
-  </si>
-  <si>
-    <t>PBBVRI</t>
-  </si>
-  <si>
-    <t>PBBVRK</t>
-  </si>
-  <si>
-    <t>PBBVRS</t>
-  </si>
-  <si>
-    <t>PBBVRU</t>
-  </si>
-  <si>
-    <t>PBBVRV</t>
-  </si>
-  <si>
-    <t>PBBVRY</t>
-  </si>
-  <si>
-    <t>PBBVSC</t>
-  </si>
-  <si>
-    <t>PBBVSE</t>
-  </si>
-  <si>
-    <t>PBBVSH</t>
-  </si>
-  <si>
-    <t>PBBVST</t>
-  </si>
-  <si>
-    <t>PBBVSU</t>
-  </si>
-  <si>
-    <t>PBBVTB</t>
-  </si>
-  <si>
-    <t>PBBVTK</t>
-  </si>
-  <si>
-    <t>PBBVTU</t>
-  </si>
-  <si>
-    <t>PBBVUA</t>
-  </si>
-  <si>
-    <t>PBBVUD</t>
-  </si>
-  <si>
-    <t>PBBVUE</t>
-  </si>
-  <si>
-    <t>PBBVUF</t>
-  </si>
-  <si>
-    <t>PBBVUP</t>
-  </si>
-  <si>
-    <t>PBBVUU</t>
-  </si>
-  <si>
-    <t>PBBVUY</t>
-  </si>
-  <si>
-    <t>PBBVVI</t>
-  </si>
-  <si>
-    <t>PBBVVP</t>
-  </si>
-  <si>
-    <t>PBBVVR</t>
-  </si>
-  <si>
-    <t>PBBVVV</t>
-  </si>
-  <si>
-    <t>PBBVWF</t>
-  </si>
-  <si>
-    <t>PBBVWK</t>
-  </si>
-  <si>
-    <t>PBBVWM</t>
-  </si>
-  <si>
-    <t>PBBVWS</t>
-  </si>
-  <si>
-    <t>PBBVXF</t>
-  </si>
-  <si>
-    <t>PBBVXG</t>
-  </si>
-  <si>
-    <t>PBBVXM</t>
-  </si>
-  <si>
-    <t>PBBVXS</t>
-  </si>
-  <si>
-    <t>PBBVYF</t>
-  </si>
-  <si>
-    <t>PBBVYL</t>
-  </si>
-  <si>
-    <t>PBBVYR</t>
-  </si>
-  <si>
-    <t>PBBVYU</t>
-  </si>
-  <si>
-    <t>PBBVYY</t>
-  </si>
-  <si>
-    <t>PBBVZC</t>
-  </si>
-  <si>
-    <t>PBBVZD</t>
-  </si>
-  <si>
-    <t>PBBVZG</t>
-  </si>
-  <si>
-    <t>PBBVZJ</t>
-  </si>
-  <si>
-    <t>PBBVZL</t>
-  </si>
-  <si>
-    <t>PBBVZS</t>
-  </si>
-  <si>
-    <t>PBBVZV</t>
-  </si>
-  <si>
-    <t>PBBVZZ</t>
-  </si>
-  <si>
-    <t>PBBWAA</t>
-  </si>
-  <si>
-    <t>PBBWAC</t>
-  </si>
-  <si>
-    <t>PBBWAD</t>
-  </si>
-  <si>
-    <t>PBBWAE</t>
-  </si>
-  <si>
-    <t>PBBWAH</t>
-  </si>
-  <si>
-    <t>PBBWAI</t>
-  </si>
-  <si>
-    <t>PBBWAN</t>
-  </si>
-  <si>
-    <t>PBBWAR</t>
-  </si>
-  <si>
-    <t>PBBWAS</t>
-  </si>
-  <si>
-    <t>PBBWAV</t>
-  </si>
-  <si>
-    <t>PBBWAX</t>
-  </si>
-  <si>
-    <t>PBBWBL</t>
-  </si>
-  <si>
-    <t>PBBWBP</t>
-  </si>
-  <si>
-    <t>PBBWBV</t>
-  </si>
-  <si>
-    <t>PBBWBX</t>
-  </si>
-  <si>
-    <t>PBBWCB</t>
-  </si>
-  <si>
-    <t>PBBWCH</t>
-  </si>
-  <si>
-    <t>PBBWCI</t>
-  </si>
-  <si>
-    <t>PBBWCP</t>
-  </si>
-  <si>
-    <t>PBBWCW</t>
-  </si>
-  <si>
-    <t>PBBWCX</t>
-  </si>
-  <si>
-    <t>PBBWDB</t>
-  </si>
-  <si>
-    <t>PBBWDF</t>
-  </si>
-  <si>
-    <t>PBBWDR</t>
-  </si>
-  <si>
-    <t>PBBWDW</t>
-  </si>
-  <si>
-    <t>PBBWDY</t>
-  </si>
-  <si>
-    <t>PBBWED</t>
-  </si>
-  <si>
-    <t>PBBWEH</t>
-  </si>
-  <si>
-    <t>PBBWEI</t>
-  </si>
-  <si>
-    <t>PBBWEK</t>
-  </si>
-  <si>
-    <t>PBBWEL</t>
-  </si>
-  <si>
-    <t>PBBWER</t>
-  </si>
-  <si>
-    <t>PBBWET</t>
-  </si>
-  <si>
-    <t>PBBWFB</t>
-  </si>
-  <si>
-    <t>PBBWFC</t>
-  </si>
-  <si>
-    <t>PBBWFD</t>
-  </si>
-  <si>
-    <t>PBBWFF</t>
-  </si>
-  <si>
-    <t>PBBWFG</t>
-  </si>
-  <si>
-    <t>PBBWFN</t>
-  </si>
-  <si>
-    <t>PBBWFV</t>
-  </si>
-  <si>
-    <t>PBBWGG</t>
-  </si>
-  <si>
-    <t>PBBWGJ</t>
-  </si>
-  <si>
-    <t>PBBWGK</t>
-  </si>
-  <si>
-    <t>PBBWGP</t>
-  </si>
-  <si>
-    <t>PBBWGV</t>
-  </si>
-  <si>
-    <t>PBBWGY</t>
-  </si>
-  <si>
-    <t>PBBWHI</t>
-  </si>
-  <si>
-    <t>PBBWHN</t>
-  </si>
-  <si>
-    <t>PBBWHP</t>
-  </si>
-  <si>
-    <t>PBBWHU</t>
-  </si>
-  <si>
-    <t>PBBWHY</t>
   </si>
 </sst>
 </file>
@@ -4620,10 +2511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CA066D6-826D-4E2E-8ABB-2731BC7E68A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:A1404"/>
+  <dimension ref="A1:A701"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1371" workbookViewId="0">
-      <selection activeCell="C1407" sqref="C1407"/>
+    <sheetView tabSelected="1" topLeftCell="A689" workbookViewId="0">
+      <selection activeCell="A1404" sqref="A702:XFD1404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8133,3521 +6024,6 @@
         <v>700</v>
       </c>
     </row>
-    <row r="702" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A702" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="703" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A703" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="704" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A704" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="705" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A705" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="706" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A706" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="707" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A707" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="708" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A708" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="709" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A709" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="710" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A710" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="711" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A711" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="712" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A712" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="713" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A713" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="714" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A714" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="715" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A715" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="716" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A716" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="717" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A717" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="718" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A718" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="719" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A719" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="720" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A720" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="721" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A721" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="722" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A722" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="723" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A723" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="724" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A724" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="725" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A725" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="726" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A726" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="727" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A727" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="728" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A728" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="729" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A729" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="730" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A730" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="731" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A731" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="732" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A732" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="733" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A733" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="734" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A734" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="735" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A735" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="736" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A736" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="737" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A737" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="738" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A738" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="739" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A739" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="740" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A740" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="741" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A741" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A742" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="743" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A743" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="744" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A744" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="745" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A745" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="746" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A746" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="747" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A747" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="748" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A748" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="749" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A749" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="750" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A750" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="751" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A751" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="752" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A752" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="753" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A753" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="754" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A754" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="755" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A755" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="756" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A756" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="757" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A757" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="758" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A758" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="759" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A759" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="760" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A760" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="761" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A761" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="762" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A762" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="763" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A763" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="764" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A764" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="765" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A765" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="766" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A766" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="767" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A767" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="768" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A768" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="769" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A769" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="770" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A770" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="771" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A771" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="772" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A772" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="773" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A773" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="774" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A774" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="775" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A775" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="776" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A776" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="777" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A777" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="778" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A778" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="779" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A779" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="780" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A780" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="781" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A781" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="782" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A782" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="783" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A783" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="784" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A784" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="785" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A785" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="786" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A786" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="787" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A787" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="788" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A788" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="789" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A789" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="790" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A790" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="791" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A791" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="792" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A792" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="793" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A793" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="794" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A794" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="795" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A795" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="796" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A796" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="797" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A797" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="798" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A798" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="799" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A799" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="800" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A800" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="801" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A801" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="802" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A802" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="803" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A803" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="804" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A804" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="805" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A805" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="806" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A806" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="807" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A807" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="808" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A808" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="809" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A809" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="810" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A810" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="811" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A811" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="812" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A812" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="813" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A813" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="814" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A814" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="815" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A815" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="816" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A816" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="817" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A817" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="818" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A818" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="819" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A819" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="820" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A820" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="821" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A821" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="822" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A822" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="823" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A823" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="824" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A824" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="825" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A825" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="826" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A826" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="827" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A827" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="828" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A828" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="829" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A829" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="830" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A830" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="831" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A831" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="832" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A832" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="833" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A833" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="834" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A834" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="835" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A835" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="836" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A836" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="837" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A837" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="838" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A838" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="839" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A839" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="840" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A840" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="841" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A841" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="842" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A842" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="843" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A843" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="844" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A844" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A845" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="846" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A846" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="847" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A847" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="848" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A848" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="849" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A849" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="850" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A850" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="851" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A851" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="852" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A852" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="853" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A853" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="854" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A854" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="855" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A855" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="856" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A856" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="857" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A857" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="858" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A858" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="859" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A859" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="860" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A860" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="861" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A861" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="862" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A862" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="863" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A863" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="864" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A864" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="865" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A865" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="866" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A866" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="867" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A867" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="868" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A868" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="869" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A869" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="870" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A870" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="871" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A871" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="872" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A872" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="873" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A873" t="s">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="874" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A874" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="875" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A875" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="876" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A876" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="877" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A877" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="878" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A878" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="879" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A879" t="s">
-        <v>878</v>
-      </c>
-    </row>
-    <row r="880" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A880" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A881" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="882" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A882" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="883" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A883" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="884" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A884" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="885" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A885" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="886" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A886" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="887" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A887" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="888" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A888" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="889" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A889" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="890" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A890" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="891" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A891" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="892" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A892" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="893" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A893" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="894" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A894" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="895" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A895" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="896" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A896" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="897" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A897" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="898" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A898" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="899" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A899" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="900" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A900" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="901" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A901" t="s">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="902" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A902" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="903" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A903" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="904" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A904" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="905" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A905" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="906" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A906" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="907" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A907" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="908" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A908" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="909" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A909" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="910" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A910" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="911" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A911" t="s">
-        <v>910</v>
-      </c>
-    </row>
-    <row r="912" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A912" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="913" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A913" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="914" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A914" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="915" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A915" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="916" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A916" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="917" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A917" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="918" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A918" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="919" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A919" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="920" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A920" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="921" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A921" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="922" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A922" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="923" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A923" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="924" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A924" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="925" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A925" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="926" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A926" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="927" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A927" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="928" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A928" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="929" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A929" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="930" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A930" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="931" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A931" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="932" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A932" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="933" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A933" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="934" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A934" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="935" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A935" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="936" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A936" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="937" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A937" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="938" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A938" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="939" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A939" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="940" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A940" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="941" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A941" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="942" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A942" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="943" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A943" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="944" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A944" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="945" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A945" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="946" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A946" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="947" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A947" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="948" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A948" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="949" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A949" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="950" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A950" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="951" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A951" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="952" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A952" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="953" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A953" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="954" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A954" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="955" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A955" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="956" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A956" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="957" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A957" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="958" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A958" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="959" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A959" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="960" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A960" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="961" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A961" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="962" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A962" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="963" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A963" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="964" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A964" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="965" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A965" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="966" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A966" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="967" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A967" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="968" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A968" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="969" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A969" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="970" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A970" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="971" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A971" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="972" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A972" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="973" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A973" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="974" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A974" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="975" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A975" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="976" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A976" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="977" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A977" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="978" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A978" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="979" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A979" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="980" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A980" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="981" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A981" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="982" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A982" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="983" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A983" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="984" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A984" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="985" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A985" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="986" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A986" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="987" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A987" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="988" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A988" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="989" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A989" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="990" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A990" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="991" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A991" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="992" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A992" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="993" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A993" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="994" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A994" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="995" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A995" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="996" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A996" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="997" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A997" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="998" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A998" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="999" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A999" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1000" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1001" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="1002" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1002" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="1003" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1003" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="1004" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1004" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="1005" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1005" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="1006" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1006" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="1007" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1007" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="1008" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1008" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="1009" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1009" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="1010" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1010" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="1011" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1011" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="1012" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1012" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="1013" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1013" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="1014" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1014" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="1015" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1015" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="1016" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1016" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="1017" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1017" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="1018" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1018" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="1019" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1019" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1020" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="1021" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1021" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="1022" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1022" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="1023" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1023" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="1024" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1024" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="1025" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1025" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="1026" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1026" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="1027" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1027" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1028" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="1029" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1029" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="1030" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1030" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1031" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1032" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="1033" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1033" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="1034" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1034" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="1035" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1035" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="1036" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1036" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="1037" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1037" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="1038" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1038" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="1039" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1039" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="1040" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1040" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="1041" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1041" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="1042" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1042" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="1043" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1043" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="1044" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1044" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="1045" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1045" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="1046" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1046" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="1047" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1047" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="1048" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1048" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="1049" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1049" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="1050" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1050" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="1051" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1051" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="1052" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1052" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="1053" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1053" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="1054" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1054" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="1055" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1055" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="1056" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1056" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="1057" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1057" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="1058" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1058" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="1059" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1059" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="1060" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1060" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="1061" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1061" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="1062" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1062" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="1063" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1063" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="1064" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1064" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="1065" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1065" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="1066" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1066" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="1067" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1067" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="1068" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1068" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="1069" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1069" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="1070" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1070" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="1071" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1071" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="1072" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1072" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="1073" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1073" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="1074" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1074" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="1075" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1075" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="1076" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1076" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="1077" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1077" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="1078" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1078" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="1079" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1079" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="1080" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1080" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="1081" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1081" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="1082" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1082" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="1083" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1083" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="1084" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1084" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="1085" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1085" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="1086" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1086" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="1087" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1087" t="s">
-        <v>1086</v>
-      </c>
-    </row>
-    <row r="1088" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1088" t="s">
-        <v>1087</v>
-      </c>
-    </row>
-    <row r="1089" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1089" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="1090" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1090" t="s">
-        <v>1089</v>
-      </c>
-    </row>
-    <row r="1091" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1091" t="s">
-        <v>1090</v>
-      </c>
-    </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1092" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1093" t="s">
-        <v>1092</v>
-      </c>
-    </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1094" t="s">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="1095" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1095" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="1096" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1096" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="1097" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1097" t="s">
-        <v>1096</v>
-      </c>
-    </row>
-    <row r="1098" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1098" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="1099" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1099" t="s">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="1100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1100" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="1101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1101" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="1102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1102" t="s">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="1103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1103" t="s">
-        <v>1102</v>
-      </c>
-    </row>
-    <row r="1104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1104" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="1105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1105" t="s">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="1106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1106" t="s">
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1107" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="1108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1108" t="s">
-        <v>1107</v>
-      </c>
-    </row>
-    <row r="1109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1109" t="s">
-        <v>1108</v>
-      </c>
-    </row>
-    <row r="1110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1110" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="1111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1111" t="s">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="1112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1112" t="s">
-        <v>1111</v>
-      </c>
-    </row>
-    <row r="1113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1113" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="1114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1114" t="s">
-        <v>1113</v>
-      </c>
-    </row>
-    <row r="1115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1115" t="s">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="1116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1116" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="1117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1117" t="s">
-        <v>1116</v>
-      </c>
-    </row>
-    <row r="1118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1118" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="1119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1119" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="1120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1120" t="s">
-        <v>1119</v>
-      </c>
-    </row>
-    <row r="1121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1121" t="s">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="1122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1122" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="1123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1123" t="s">
-        <v>1122</v>
-      </c>
-    </row>
-    <row r="1124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1124" t="s">
-        <v>1123</v>
-      </c>
-    </row>
-    <row r="1125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1125" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="1126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1126" t="s">
-        <v>1125</v>
-      </c>
-    </row>
-    <row r="1127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1127" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="1128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1128" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="1129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1129" t="s">
-        <v>1128</v>
-      </c>
-    </row>
-    <row r="1130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1130" t="s">
-        <v>1129</v>
-      </c>
-    </row>
-    <row r="1131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1131" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="1132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1132" t="s">
-        <v>1131</v>
-      </c>
-    </row>
-    <row r="1133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1133" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="1134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1134" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="1135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1135" t="s">
-        <v>1134</v>
-      </c>
-    </row>
-    <row r="1136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1136" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="1137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1137" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="1138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1138" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="1139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1139" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1140" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1141" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1142" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="1143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1143" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="1144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1144" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="1145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1145" t="s">
-        <v>1144</v>
-      </c>
-    </row>
-    <row r="1146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1146" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="1147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1147" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="1148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1148" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="1149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1149" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="1150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1150" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="1151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1151" t="s">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="1152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1152" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="1153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1153" t="s">
-        <v>1152</v>
-      </c>
-    </row>
-    <row r="1154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1154" t="s">
-        <v>1153</v>
-      </c>
-    </row>
-    <row r="1155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1155" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="1156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1156" t="s">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="1157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1157" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="1158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1158" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="1159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1159" t="s">
-        <v>1158</v>
-      </c>
-    </row>
-    <row r="1160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1160" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="1161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1161" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="1162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1162" t="s">
-        <v>1161</v>
-      </c>
-    </row>
-    <row r="1163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1163" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="1164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1164" t="s">
-        <v>1163</v>
-      </c>
-    </row>
-    <row r="1165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1165" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="1166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1166" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="1167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1167" t="s">
-        <v>1166</v>
-      </c>
-    </row>
-    <row r="1168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1168" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="1169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1169" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="1170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1170" t="s">
-        <v>1169</v>
-      </c>
-    </row>
-    <row r="1171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1171" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="1172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1172" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="1173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1173" t="s">
-        <v>1172</v>
-      </c>
-    </row>
-    <row r="1174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1174" t="s">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="1175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1175" t="s">
-        <v>1174</v>
-      </c>
-    </row>
-    <row r="1176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1176" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="1177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1177" t="s">
-        <v>1176</v>
-      </c>
-    </row>
-    <row r="1178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1178" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="1179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1179" t="s">
-        <v>1178</v>
-      </c>
-    </row>
-    <row r="1180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1180" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="1181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1181" t="s">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1182" t="s">
-        <v>1181</v>
-      </c>
-    </row>
-    <row r="1183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1183" t="s">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="1184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1184" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="1185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1185" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="1186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1186" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="1187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1187" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="1188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1188" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="1189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1189" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="1190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1190" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="1191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1191" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="1192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1192" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="1193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1193" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="1194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1194" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="1195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1195" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="1196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1196" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="1197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1197" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="1198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1198" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="1199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1199" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="1200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1200" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="1201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1201" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="1202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1202" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="1203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1203" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="1204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1204" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="1205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1205" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="1206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1206" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="1207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1207" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="1208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1208" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="1209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1209" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="1210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1210" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="1211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1211" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="1212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1212" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="1213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1213" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="1214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1214" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1215" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1216" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1217" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="1218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1218" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="1219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1219" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="1220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1220" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="1221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1221" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="1222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1222" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="1223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1223" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="1224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1224" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="1225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1225" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="1226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1226" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="1227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1227" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="1228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1228" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="1229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1229" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="1230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1230" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="1231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1231" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="1232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1232" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="1233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1233" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="1234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1234" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="1235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1235" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="1236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1236" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="1237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1237" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="1238" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1238" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="1239" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1239" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="1240" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1240" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="1241" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1241" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="1242" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1242" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="1243" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1243" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="1244" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1244" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="1245" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1245" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="1246" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1246" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="1247" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1247" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="1248" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1248" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="1249" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1249" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="1250" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1250" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="1251" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1251" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="1252" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1252" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="1253" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1253" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="1254" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1254" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="1255" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1255" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="1256" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1256" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="1257" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1257" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="1258" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1258" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="1259" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1259" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="1260" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1260" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="1261" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1261" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="1262" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1262" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="1263" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1263" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="1264" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1264" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="1265" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1265" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="1266" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1266" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="1267" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1267" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="1268" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1268" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="1269" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1269" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="1270" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1270" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="1271" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1271" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="1272" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1272" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="1273" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1273" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="1274" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1274" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="1275" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1275" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="1276" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1276" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="1277" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1277" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="1278" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1278" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="1279" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1279" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="1280" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1280" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="1281" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1281" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="1282" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1282" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="1283" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1283" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="1284" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1284" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="1285" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1285" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="1286" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1286" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="1287" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1287" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="1288" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1288" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="1289" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1289" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="1290" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1290" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="1291" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1291" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="1292" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1292" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="1293" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1293" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="1294" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1294" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="1295" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1295" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="1296" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1296" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="1297" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1297" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="1298" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1298" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="1299" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1299" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="1300" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1300" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="1301" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1301" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="1302" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1302" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="1303" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1303" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="1304" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1304" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="1305" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1305" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="1306" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1306" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="1307" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1307" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="1308" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1308" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="1309" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1309" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="1310" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1310" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1311" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1312" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1313" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="1314" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1314" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="1315" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1315" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="1316" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1316" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="1317" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1317" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="1318" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1318" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="1319" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1319" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="1320" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1320" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="1321" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1321" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="1322" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1322" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1323" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1324" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1325" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="1326" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1326" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="1327" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1327" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="1328" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1328" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="1329" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1329" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="1330" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1330" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="1331" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1331" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="1332" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1332" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="1333" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1333" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="1334" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1334" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="1335" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1335" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="1336" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1336" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="1337" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1337" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="1338" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1338" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="1339" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1339" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="1340" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1340" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="1341" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1341" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="1342" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1342" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="1343" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1343" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="1344" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1344" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="1345" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1345" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="1346" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1346" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="1347" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1347" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="1348" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1348" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="1349" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1349" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="1350" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1350" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="1351" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1351" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="1352" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1352" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="1353" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1353" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="1354" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1354" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="1355" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1355" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="1356" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1356" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="1357" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1357" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="1358" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1358" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="1359" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1359" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="1360" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1360" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1361" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1362" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1363" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="1364" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1364" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="1365" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1365" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="1366" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1366" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="1367" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1367" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="1368" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1368" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="1369" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1369" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="1370" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1370" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="1371" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1371" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="1372" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1372" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1373" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1374" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1375" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="1376" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1376" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="1377" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1377" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="1378" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1378" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="1379" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1379" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="1380" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1380" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="1381" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1381" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="1382" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1382" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="1383" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1383" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="1384" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1384" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="1385" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1385" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="1386" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1386" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="1387" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1387" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="1388" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1388" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="1389" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1389" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="1390" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1390" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="1391" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1391" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="1392" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1392" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="1393" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1393" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="1394" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1394" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="1395" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1395" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="1396" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1396" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="1397" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1397" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="1398" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1398" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="1399" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1399" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="1400" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1400" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="1401" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1401" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="1402" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1402" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="1403" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1403" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="1404" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1404" t="s">
-        <v>1403</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
